--- a/medicine/Psychotrope/Rizla+/Rizla+.xlsx
+++ b/medicine/Psychotrope/Rizla+/Rizla+.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rizla%2B</t>
+          <t>Rizla+</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rizla+ (pour « Riz La Croix ») est une marque de papier à cigarette du groupe Imperial Tobacco, créée en 1796 en France par Léonide Lacroix, issue de la famille Lacroix-Frères, papetiers d'Angoulême.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rizla%2B</t>
+          <t>Rizla+</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme « riz » évoque une matière, le papier de riz, conçu au XVIIe siècle entre autres par Pierre Lacroix, et pouvant intervenir dans la composition de ce type de papier à rouler pour fabriquer soi-même des cigarettes.
 Membre de la famille de papetiers angoumoisins, Léonide Lacroix créa plusieurs marques utilisant ce mot : Riz cartonné, Riz de Chine, Riz d'Arabie, Riz bleu (papier coloré) ou bien Riz La +, Goudron la+.
-La marque invente la première machine à rouler de poche en 1928. La gomme sur le papier apparaît en 1942. Le nom définitif de la marque, Rizla+ est créé en 1881 outre-atlantique[1]. Avec le temps, le nom de la marque a fini par être prononcé « rizla plus », et même simplement « rizla », au lieu de « riz Lacroix », par ignorance du nom d'origine (« + » se dit « croix »).
+La marque invente la première machine à rouler de poche en 1928. La gomme sur le papier apparaît en 1942. Le nom définitif de la marque, Rizla+ est créé en 1881 outre-atlantique. Avec le temps, le nom de la marque a fini par être prononcé « rizla plus », et même simplement « rizla », au lieu de « riz Lacroix », par ignorance du nom d'origine (« + » se dit « croix »).
 Le papier « king size » (« grande taille ») apparaît en 1977.
-L'entreprise est revendue à la multinationale Imperial Tobacco en 1997[2].
-En 2002, Imperial Tobacco décide de fermer l'usine historique Rizla, datant de 1874 et située à Mazères-sur-Salat, et de délocaliser la production en Belgique[3].
+L'entreprise est revendue à la multinationale Imperial Tobacco en 1997.
+En 2002, Imperial Tobacco décide de fermer l'usine historique Rizla, datant de 1874 et située à Mazères-sur-Salat, et de délocaliser la production en Belgique.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rizla%2B</t>
+          <t>Rizla+</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Autres marques présentes en France</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jass-paper, marque propriété de l'entreprise française Noza distribution ;
